--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,6 +189,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,50 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +288,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -344,6 +344,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,6 +428,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,42 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,15 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,36 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +606,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>apiname</t>
   </si>
@@ -38,7 +38,7 @@
     <t>web_createproject</t>
   </si>
   <si>
-    <t>https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?</t>
+    <t>https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo</t>
   </si>
   <si>
     <t>3</t>
@@ -56,7 +56,10 @@
     <t>PersistenceHint</t>
   </si>
   <si>
-    <t>StatusCode</t>
+    <t>ClientId</t>
+  </si>
+  <si>
+    <t>StatusCode_oldlogin</t>
   </si>
   <si>
     <t>fktest</t>
@@ -71,6 +74,9 @@
     <t>true</t>
   </si>
   <si>
+    <t>1490261809077</t>
+  </si>
+  <si>
     <t>158833</t>
   </si>
   <si>
@@ -104,6 +110,12 @@
     <t>members</t>
   </si>
   <si>
+    <t>creatorId</t>
+  </si>
+  <si>
+    <t>StatusCode_createpro</t>
+  </si>
+  <si>
     <t>pro1</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
   </si>
   <si>
     <t>[183,1759,1864]</t>
+  </si>
+  <si>
+    <t>183</t>
   </si>
   <si>
     <t>pro2</t>
@@ -1113,7 +1128,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1159,7 +1174,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1169,10 +1184,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1180,17 +1195,18 @@
     <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="44.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="15.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,212 +1222,257 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>apiname</t>
   </si>
@@ -56,7 +56,7 @@
     <t>PersistenceHint</t>
   </si>
   <si>
-    <t>ClientId</t>
+    <t>ClientId_old</t>
   </si>
   <si>
     <t>StatusCode_oldlogin</t>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>members</t>
+  </si>
+  <si>
+    <t>ClientId_cro</t>
   </si>
   <si>
     <t>creatorId</t>
@@ -172,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -203,6 +206,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -211,9 +221,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,9 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,37 +251,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,14 +274,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -302,6 +281,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -310,29 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +362,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,61 +476,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,85 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +547,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,65 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,16 +667,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,115 +685,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,9 +1134,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.6296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
@@ -1186,23 +1189,23 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.1296296296296" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.8796296296296" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1292,45 +1295,45 @@
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>5</v>
@@ -1338,34 +1341,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>5</v>
@@ -1373,34 +1376,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>5</v>
@@ -1408,34 +1411,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>5</v>
@@ -1443,34 +1446,34 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>apiname</t>
   </si>
@@ -26,6 +26,12 @@
     <t>num</t>
   </si>
   <si>
+    <t>web_getlogin</t>
+  </si>
+  <si>
+    <t>https://www.fxiaoke.com/XV/User/Login</t>
+  </si>
+  <si>
     <t>web_oldlogin</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>ClientId_old</t>
   </si>
   <si>
+    <t>ImgCode</t>
+  </si>
+  <si>
     <t>StatusCode_oldlogin</t>
   </si>
   <si>
@@ -75,6 +84,9 @@
   </si>
   <si>
     <t>1490261809077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>158833</t>
@@ -175,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,24 +218,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,24 +277,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +315,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -283,59 +332,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +374,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,163 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,11 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,17 +581,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,17 +616,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,137 +679,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +820,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
@@ -1128,13 +1146,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.6296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
@@ -1152,32 +1170,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://www.fxiaoke.com/XV/User/Login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1189,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1201,7 +1228,7 @@
     <col min="4" max="4" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="44.1296296296296" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.8888888888889" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="25.8796296296296" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
@@ -1209,274 +1236,283 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1"/>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>StatusCode_createpro</t>
   </si>
   <si>
-    <t>pro1</t>
+    <t>pro111</t>
   </si>
   <si>
     <t>aaaaaaaaaaaaaaaa</t>
@@ -158,25 +158,25 @@
     <t>183</t>
   </si>
   <si>
-    <t>pro2</t>
+    <t>pro222</t>
   </si>
   <si>
     <t>bbbbbbbbbbbbbbbb</t>
   </si>
   <si>
-    <t>pro3</t>
+    <t>pro333</t>
   </si>
   <si>
     <t>cccccccccccccccc</t>
   </si>
   <si>
-    <t>pro4</t>
+    <t>pro444</t>
   </si>
   <si>
     <t>dddddddddddddddd</t>
   </si>
   <si>
-    <t>pro5</t>
+    <t>pro555</t>
   </si>
   <si>
     <t>eeeeeeeeeeeeeeee</t>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -227,36 +227,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -285,22 +263,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,7 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,9 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +374,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,169 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,16 +587,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,15 +618,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -639,23 +630,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +679,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,115 +697,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,13 +1148,13 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.6296296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.6333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
@@ -1216,23 +1216,23 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.1296296296296" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.8916666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.8796296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.8833333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
     <t>num</t>
   </si>
   <si>
-    <t>web_getlogin</t>
-  </si>
-  <si>
-    <t>https://www.fxiaoke.com/XV/User/Login</t>
-  </si>
-  <si>
     <t>web_oldlogin</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>web_loginoff</t>
+  </si>
+  <si>
+    <t>https://www.fxiaoke.com/FHH/EM3HXUL/Authorize/Logoff?</t>
+  </si>
+  <si>
     <t>EnterpriseAccount</t>
   </si>
   <si>
@@ -131,7 +131,7 @@
     <t>StatusCode_createpro</t>
   </si>
   <si>
-    <t>pro111</t>
+    <t>pro111a</t>
   </si>
   <si>
     <t>aaaaaaaaaaaaaaaa</t>
@@ -158,25 +158,25 @@
     <t>183</t>
   </si>
   <si>
-    <t>pro222</t>
+    <t>pro222b</t>
   </si>
   <si>
     <t>bbbbbbbbbbbbbbbb</t>
   </si>
   <si>
-    <t>pro333</t>
+    <t>pro333c</t>
   </si>
   <si>
     <t>cccccccccccccccc</t>
   </si>
   <si>
-    <t>pro444</t>
+    <t>pro444d</t>
   </si>
   <si>
     <t>dddddddddddddddd</t>
   </si>
   <si>
-    <t>pro555</t>
+    <t>pro555e</t>
   </si>
   <si>
     <t>eeeeeeeeeeeeeeee</t>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,6 +218,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,10 +232,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,6 +262,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,6 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -263,84 +300,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,181 +374,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,41 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,8 +604,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,149 +667,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,12 +820,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
@@ -1149,12 +1143,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.6296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
@@ -1170,41 +1164,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://www.fxiaoke.com/XV/User/Login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.fxiaoke.com/FHH/EM3HXUL/Authorize/Logoff?"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1217,22 +1211,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.8916666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.1296296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.8888888888889" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.8833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.8796296296296" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.3833333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1279,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1302,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -1372,7 +1366,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1407,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1442,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1477,7 +1471,7 @@
         <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1512,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1"/>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>apiname</t>
   </si>
@@ -50,6 +50,12 @@
     <t>https://www.fxiaoke.com/FHH/EM3HXUL/Authorize/Logoff?</t>
   </si>
   <si>
+    <t>web_delproject</t>
+  </si>
+  <si>
+    <t>https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/deleteProject?</t>
+  </si>
+  <si>
     <t>EnterpriseAccount</t>
   </si>
   <si>
@@ -131,7 +137,7 @@
     <t>StatusCode_createpro</t>
   </si>
   <si>
-    <t>pro111a</t>
+    <t>pro111aaa</t>
   </si>
   <si>
     <t>aaaaaaaaaaaaaaaa</t>
@@ -158,25 +164,25 @@
     <t>183</t>
   </si>
   <si>
-    <t>pro222b</t>
+    <t>pro222bbb</t>
   </si>
   <si>
     <t>bbbbbbbbbbbbbbbb</t>
   </si>
   <si>
-    <t>pro333c</t>
+    <t>pro333ccc</t>
   </si>
   <si>
     <t>cccccccccccccccc</t>
   </si>
   <si>
-    <t>pro444d</t>
+    <t>pro444ddd</t>
   </si>
   <si>
     <t>dddddddddddddddd</t>
   </si>
   <si>
-    <t>pro555e</t>
+    <t>pro555eee</t>
   </si>
   <si>
     <t>eeeeeeeeeeeeeeee</t>
@@ -187,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -218,14 +224,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,11 +269,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,14 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,53 +339,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,25 +380,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,151 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +565,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,9 +633,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,21 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -648,17 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +685,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,115 +703,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,15 +1146,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.6296296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.6333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
@@ -1194,11 +1200,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.fxiaoke.com/FHH/EM0HXUL/Authorize/Login"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.fxiaoke.com/FHH/EM3HXUL/Authorize/Logoff?"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/deleteProject?"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1211,66 +1226,66 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.1296296296296" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.8916666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.8796296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.8833333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
@@ -1278,22 +1293,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
@@ -1301,69 +1316,69 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>5</v>
@@ -1371,34 +1386,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>5</v>
@@ -1406,34 +1421,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>5</v>
@@ -1441,34 +1456,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>5</v>
@@ -1476,34 +1491,34 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>

--- a/Data/fs_XLS/fs_apitest.xlsx
+++ b/Data/fs_XLS/fs_apitest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>apiname</t>
   </si>
@@ -56,6 +56,15 @@
     <t>https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/deleteProject?</t>
   </si>
   <si>
+    <t>web_projectlist</t>
+  </si>
+  <si>
+    <t>https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/queryAllProjectList?</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>EnterpriseAccount</t>
   </si>
   <si>
@@ -186,6 +195,9 @@
   </si>
   <si>
     <t>eeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>orderType</t>
   </si>
 </sst>
 </file>
@@ -194,9 +206,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,7 +236,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,12 +311,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -261,105 +332,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,7 +386,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,12 +440,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,7 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,79 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,61 +542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,30 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,32 +599,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -660,6 +616,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -673,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,16 +691,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,123 +712,120 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1146,17 +1149,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.6333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="67.75" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="22.6333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="74.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1171,41 +1174,52 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1214,6 +1228,7 @@
     <hyperlink ref="B3" r:id="rId2" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/createProject?traceId=E-E.fktest.183-48487451&amp;_fs_token=OpWrCZ0uE64jCJWoDoqqCZCqBM8sCpOjE3GqOZSqOc4oDpCo"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.fxiaoke.com/FHH/EM3HXUL/Authorize/Logoff?"/>
     <hyperlink ref="B5" r:id="rId4" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/deleteProject?"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.fxiaoke.com/FHH/EM1HPM/projectWebCtrl/queryAllProjectList?"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1223,308 +1238,317 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.8916666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.8833333333333" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.3833333333333" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.8916666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
